--- a/SRC/FlowChart/一般交易/inEVENT_Responder_SALE.xlsx
+++ b/SRC/FlowChart/一般交易/inEVENT_Responder_SALE.xlsx
@@ -25,16 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inDisTouch_Flush_TouchFile();
-inFunc_GetSystemDateAndTime(&amp;srRTC) 取得端末機系統日期時間，放到自定義的結構
-inFunc_Sync_BRec_Date_Time(&amp;pobTran, &amp;srRTC);同步BRec日期和時間
-inLoadHDTRec(0);   /* 這邊先使用NCCC HDT的設定 */
-inLoadHDPTRec(0);   /* 初始化，避免ECR過卡timeout回錯的Host ID */
-srEventMenuItem.inEventCode = inKey;
-ginEventCode = inKey;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inRetVal = inMENU_000_MenuFlow_NEWUI(&amp;srEventMenuItem);</t>
   </si>
   <si>
@@ -48,25 +38,11 @@
     <t>inMENU_MenuKeyInAndGetAmount</t>
   </si>
   <si>
-    <t>pobTran.inFunctionID = srEventMenuItem.inCode;
-pobTran.inRunOperationID = srEventMenuItem.inRunOperationID;
-pobTran.inRunTRTID = srEventMenuItem.inRunTRTID;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPT_TABLE OPERATION_TABLE[] ={_OPERATION_SALE_CTLS_IDLE_,   SALE_CTLS_IDLE_OPERATION_TABLE},</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>for loop inFLOW_RunFunction(SALE_CTLS_IDLE_OPERATION_TABLE[i])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>srEventMenuItem-&gt;inPasswordLevel = _ACCESS_WITH_CUSTOM_;
-srEventMenuItem-&gt;inCode = _SALE_;
-srEventMenuItem-&gt;inPasswordLevel = _ACCESS_FREELY_;
-srEventMenuItem-&gt;inRunOperationID = _OPERATION_SALE_CTLS_IDLE_;
-srEventMenuItem-&gt;inRunTRTID = _TRT_SALE_CTLS_;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,13 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inDISP_Enter8x16_GetAmount此function讓使用者輸入金額顯示在螢幕上，
-顯示格式包含 幣別+金額+comma + 靠右靠左，最後設定BATCH_REC的pobTran-&gt;srBRec.lnTxnAmount = atol(srDispObj.szOutput);
-pobTran-&gt;srBRec.lnOrgTxnAmount = atol(srDispObj.szOutput);
-pobTran-&gt;srBRec.lnTotalTxnAmount = atol(srDispObj.szOutput);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_Func_Check_Is_Ticket_Purchase</t>
   </si>
   <si>
@@ -127,19 +96,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/*BEGIN 以下為客製化為_CUSTOMER_INDICATOR_126_MASTERCARD_FLIGHT_TICKET_所用到function  */</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/*END  */</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inCREDIT_Func_Get_OPT_StoreID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者透過inDISP_Enter8x16_Character_Mask輸入櫃號，由inCREDIT_Func_Get_OPT_StoreID判斷櫃號是否需要重新輸入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,10 +113,6 @@
   <si>
     <t>螢幕顯示金額和可以選擇銀聯卡或是電子票證，主要功能有刷卡、插卡、感應卡、人工輸入卡號，
 會先透過內圈的while選擇事件，外圈的while接收事件後會收到卡片資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_CL_Power_Off關閉感應天線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_Func_Decide_CTLS_TRT根據交易類型設定pobTran-&gt;inRunTRTID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inEVENT_Run_Normal_TRT(&amp;pobTran);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +180,6 @@
     <t>_COMM_MODEM_PREDIAL_</t>
   </si>
   <si>
-    <t>撥接開啟+setConfig，實際作撥接動作inModem_Dial，建立連線?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inCREDIT_Func_GetAmount</t>
   </si>
   <si>
@@ -242,11 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主要針對客製化_CUSTOMER_INDICATOR_076_8_DIGITS_，inFunc_Check_Single_Trade查詢交易金額是否超過範圍，
-inFunc_Check_Total_Trade 　算出批次總金額，並判斷是否超過範圍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inCREDIT_Func_GetStoreID</t>
   </si>
   <si>
@@ -264,12 +204,6 @@
     <t>inNCCC_Func_MakeRefNo</t>
   </si>
   <si>
-    <t>組szRRN:szRRN[0] = "9"，szRRN[1:5]取端末機代號[3~7] +szRRN[6:7] 取szlnBatchNum取兩數 + szRRN[8:10]取lnOrgInvNum取三數，並向右填滿空格，讓szRRN 長度固定12
-組szAwardSN(優惠序號):端末機代號[0:7]+取得系統日期轉為西元年月日時分秒 取年月
-如果不是信託交易，strncpy(pobTran-&gt;srBRec.szRefNo, szRRN, sizeof(pobTran-&gt;srBRec.szRefNo));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_Func_Check_Amount_by_Card目前此function for 建設公司需求 ，暫時不看內部邏輯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,15 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_Func_Beep_After_Auth 客製化為_CUSTOMER_INDICATOR_123_IKEA_或是_CUSTOMER_INDICATOR_124_EVER_RICH_ 加入提示音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_Get_Transaction_No_From_PAN 利用TID運算出卡號的Transaction Number 儲存至 srBRec.szTxNo，
-因為原本註解就寫得很完整了，詳細可直接閱讀這支程式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_Func_BDAU_DeleteAccumBatch因為客製化_CUSTOMER_INDICATOR_042_BDAU1_或是_CUSTOMER_INDICATOR_043_BDAU9_ 要刪除Batch資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,15 +264,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">inNCCC_ESC_Check因為沒有開功能，所以不上傳ESC，看起來主要設定 pobTran-&gt;srBRec.inESCUploadMode </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_DCC_CurrencyOption這支程式沒做事，感覺邏輯部分被拿掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_DCC_CHECK，主要在設定pobTran-&gt;srBRec.uszDCCTransBit開關上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,14 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inCREDIT_Func_CheckResult 看起來是設定pobTran-&gt;srBRec.uszNoSignatureBit，並呼叫inBATCH_Update_NoSignature_By_Sqlite 更新資料回資料庫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inSIGN_TouchSignature_Flow 看起來是設定pobTran-&gt;srBRec.inSignStatus 更新回資料庫，又或是開啟signPad觸控簽名功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_Func_ESC_FuncProcess 刪除舊的暫存Table，重新Create +Insert Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,29 +294,6 @@
   </si>
   <si>
     <t>inFLOW_RunOperation(&amp;pobTran, srEventMenuItem.inRunOperationID);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_FUNCTION_CHECK_TERM_STATUS_確認機器狀態，
-包括是否已下TMS參數和DCC參數     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (暫時沒看code)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFunc_UpdateInvNum 會先抓每個主機的調閱編號，取最大值編號，同步更新每個主機的資料庫欄位上，
-判斷如果原始的調閱編號超過上限且要結帳，設定szMustSettleBit(是否結帳的flag)為"Y"，並同步更新資料庫的欄位值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,12 +341,182 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inDisTouch_Flush_TouchFile();
+inFunc_GetSystemDateAndTime(&amp;srRTC) 取得端末機系統日期時間，放到自定義的結構
+inFunc_Sync_BRec_Date_Time(&amp;pobTran, &amp;srRTC);同步BRec日期和時間
+inLoadHDTRec(0);   /* 這邊先使用NCCC HDT的設定 */
+inLoadHDPTRec(0);   /* 初始化，避免ECR過卡timeout回錯的Host ID */
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srEventMenuItem.inEventCode = inKey;
+ginEventCode = inKey;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pobTran.inFunctionID = srEventMenuItem.inCode;
+pobTran.inRunOperationID = srEventMenuItem.inRunOperationID;
+pobTran.inRunTRTID = srEventMenuItem.inRunTRTID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srEventMenuItem-&gt;inPasswordLevel = _ACCESS_WITH_CUSTOM_;
+srEventMenuItem-&gt;inCode = _SALE_;
+srEventMenuItem-&gt;inRunOperationID = _OPERATION_SALE_CTLS_IDLE_;
+srEventMenuItem-&gt;inRunTRTID = _TRT_SALE_CTLS_;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_FUNCTION_CHECK_TERM_STATUS_確認機器狀態，
+包括是否已下TMS參數和DCC參數     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (暫時沒看code)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inDISP_Enter8x16_GetAmount此function讓使用者輸入金額顯示在螢幕上，
+顯示格式包含 幣別+金額+comma + 靠右靠左，最後設定BATCH_REC的pobTran-&gt;srBRec.lnTxnAmount = atol(srDispObj.szOutput);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.lnOrgTxnAmount = atol(srDispObj.szOutput);
+pobTran-&gt;srBRec.lnTotalTxnAmount = atol(srDispObj.szOutput);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCREDIT_Func_Get_OPT_StoreID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">使用者透過inDISP_Enter8x16_Character_Mask輸入櫃號，由inCREDIT_Func_Get_OPT_StoreID判斷櫃號是否需要重新輸入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memcpy(&amp;pobTran-&gt;srBRec.szStoreID[0], &amp;srDispObj.szOutput[0], srDispObj.inOutputLen);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>inNCCC_Func_Decide_CTLS_TRT根據交易類型設定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;inRunTRTID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*BEGIN 以下為客製化為_CUSTOMER_INDICATOR_126_MASTERCARD_FLIGHT_TICKET_所用到function  */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_CL_Power_Off關閉感應天線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥接開啟+setConfig，實際作撥接動作inModem_Dial，建立連線?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要針對客製化_CUSTOMER_INDICATOR_076_8_DIGITS_，inFunc_Check_Single_Trade查詢交易金額是否超過範圍，
+inFunc_Check_Total_Trade 　算出批次總金額，並判斷是否超過範圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組szRRN:szRRN[0] = "9"，szRRN[1:5]取端末機代號[3~7] +szRRN[6:7] 取szlnBatchNum取兩數 + szRRN[8:10]取lnOrgInvNum取三數，並向右填滿空格，讓szRRN 長度固定12
+組szAwardSN(優惠序號):端末機代號[0:7]+取得系統日期轉為西元年月日時分秒 取年月
+如果不是信託交易，strncpy(pobTran-&gt;srBRec.szRefNo, szRRN, sizeof(pobTran-&gt;srBRec.szRefNo));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inNCCC_ESC_Check因為沒有開功能，所以不上傳ESC，看起來主要設定 pobTran-&gt;srBRec.inESCUploadMode </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_DCC_CHECK，主要在設定pobTran-&gt;srBRec.uszDCCTransBit開關上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Beep_After_Auth 客製化為_CUSTOMER_INDICATOR_123_IKEA_或是_CUSTOMER_INDICATOR_124_EVER_RICH_ 加入提示音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Get_Transaction_No_From_PAN 利用TID運算出卡號的Transaction Number 儲存至 srBRec.szTxNo，
+因為原本註解就寫得很完整了，詳細可直接閱讀這支程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_UpdateInvNum 會先抓每個主機的調閱編號，取最大值編號，同步更新每個主機的資料庫欄位上，
+判斷如果原始的調閱編號超過上限且要結帳，設定szMustSettleBit(是否結帳的flag)為"Y"，並同步更新資料庫的欄位值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCREDIT_Func_CheckResult 看起來是設定pobTran-&gt;srBRec.uszNoSignatureBit，並呼叫inBATCH_Update_NoSignature_By_Sqlite 更新資料回資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inSIGN_TouchSignature_Flow 看起來是設定pobTran-&gt;srBRec.inSignStatus 更新回資料庫，又或是開啟signPad觸控簽名功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +562,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -535,6 +600,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,14 +892,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="D73" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="121.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="147.375" bestFit="1" customWidth="1"/>
@@ -843,84 +911,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.3">
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -929,327 +997,327 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="5:6" ht="30" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="5:6" ht="30" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="5:6" ht="30" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="5:6" ht="30" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="5:6" ht="30" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>26</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.3">
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="45" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F41" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="30" x14ac:dyDescent="0.3">
       <c r="D46" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.3">
       <c r="F48" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="5:6" ht="30" x14ac:dyDescent="0.3">
       <c r="F61" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="5:6" ht="60" x14ac:dyDescent="0.3">
       <c r="F67" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="5:6" ht="30" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="5:5" ht="30" x14ac:dyDescent="0.3">
@@ -1259,42 +1327,42 @@
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
